--- a/PSEC4A_netlist.xlsx
+++ b/PSEC4A_netlist.xlsx
@@ -1778,11 +1778,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="115787056"/>
-        <c:axId val="115785376"/>
+        <c:axId val="119423936"/>
+        <c:axId val="119424496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="115787056"/>
+        <c:axId val="119423936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1854,12 +1854,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115785376"/>
+        <c:crossAx val="119424496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="115785376"/>
+        <c:axId val="119424496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,7 +1939,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115787056"/>
+        <c:crossAx val="119423936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9297,10 +9297,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F132"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D67" sqref="D2:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9309,15 +9312,16 @@
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="64" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
         <v>183</v>
       </c>
       <c r="B1" s="49"/>
     </row>
-    <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -9333,8 +9337,12 @@
       <c r="F2" s="34" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H2" t="str">
+        <f>CONCATENATE(A3,",",B3,",",C3)</f>
+        <v>1,DGND_PKG1,DGND</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -9350,10 +9358,14 @@
       <c r="F3" s="23" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="0">CONCATENATE(A4,",",B4,",",C4)</f>
+        <v>2,VDD_VCDL1,VDD_VCDL</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <f t="shared" ref="A4:A67" si="1">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -9368,10 +9380,14 @@
       <c r="F4" s="23" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>3,VDD_VCDL2,VDD_VCDL</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -9386,10 +9402,14 @@
       <c r="F5" s="23" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>4,DGND_PKG2,DGND</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -9404,10 +9424,14 @@
       <c r="F6" s="23" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>5,DGND1,DGND</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -9416,10 +9440,14 @@
       <c r="C7" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>6,RF1,RF1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -9434,10 +9462,14 @@
       <c r="F8" s="23" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>7,AGND1,AGND</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -9452,10 +9484,14 @@
       <c r="F9" s="23" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>8,AVDD1,AVDD</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -9464,10 +9500,14 @@
       <c r="C10" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>9,RF2,RF2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -9476,10 +9516,14 @@
       <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>10,AGND2,AGND</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -9488,10 +9532,14 @@
       <c r="C12" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>11,AVDD2,AVDD</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -9500,10 +9548,14 @@
       <c r="C13" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>12,RF3,RF3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -9512,10 +9564,14 @@
       <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>13,AGND3,AGND</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -9524,10 +9580,14 @@
       <c r="C15" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>14,AVDD3,AVDD</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -9536,10 +9596,14 @@
       <c r="C16" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>15,RF4,RF4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -9548,10 +9612,14 @@
       <c r="C17" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>16,AGND4,AGND</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -9560,10 +9628,14 @@
       <c r="C18" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>17,AVDD4,AVDD</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -9572,10 +9644,14 @@
       <c r="C19" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>18,RF5,RF5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -9584,10 +9660,14 @@
       <c r="C20" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>19,AGND5,AGND</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -9596,10 +9676,14 @@
       <c r="C21" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>20,AVDD5,AVDD</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -9608,10 +9692,14 @@
       <c r="C22" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>21,RF6,RF6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -9620,10 +9708,14 @@
       <c r="C23" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>22,AGND6,AGND</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -9632,10 +9724,14 @@
       <c r="C24" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>23,AVDD6,AVDD</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -9644,10 +9740,14 @@
       <c r="C25" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>24,RF7,RF7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -9656,10 +9756,14 @@
       <c r="C26" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>25,AGND6,AGND</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -9668,10 +9772,14 @@
       <c r="C27" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>26,AVDD6,AVDD</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -9680,10 +9788,14 @@
       <c r="C28" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>27,RF8,RF8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -9692,10 +9804,14 @@
       <c r="C29" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>28,Vbias,Vbias</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -9704,10 +9820,14 @@
       <c r="C30" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>29,TrigThresh8,TrigThresh8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -9716,10 +9836,14 @@
       <c r="C31" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>30,DGND2,DGND</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -9728,10 +9852,14 @@
       <c r="C32" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>31,DGND_PKG3,DGND</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B33" s="15" t="s">
@@ -9740,10 +9868,14 @@
       <c r="C33" s="15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>32,DGND_PKG4,DGND</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34" s="15" t="s">
@@ -9752,10 +9884,14 @@
       <c r="C34" s="15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>33,DGND_PKG5,DGND</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -9764,10 +9900,14 @@
       <c r="C35" s="15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>34,DGND_PKG6,DGND</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" s="15" t="s">
@@ -9776,10 +9916,14 @@
       <c r="C36" s="15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>35,DGND_PKG7,DGND</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -9788,10 +9932,14 @@
       <c r="C37" s="15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>36,TrigThresh7,TrigThresh7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -9800,10 +9948,14 @@
       <c r="C38" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>37,DVDD1,DVDD</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -9812,10 +9964,14 @@
       <c r="C39" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>38,BiasTrigN,BiasTrigN</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -9824,10 +9980,14 @@
       <c r="C40" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>39,SerialClk,SerialClk</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -9836,10 +9996,14 @@
       <c r="C41" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>40,SerialLE_,SerialLE_</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -9848,10 +10012,14 @@
       <c r="C42" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>41,SerialDat,SerialDat</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -9860,10 +10028,14 @@
       <c r="C43" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>42,ROmon,ROmon</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -9872,10 +10044,14 @@
       <c r="C44" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>43,LatchSel3,LatchSel3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -9884,10 +10060,14 @@
       <c r="C45" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>44,LatchSel2,LatchSel2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -9896,10 +10076,14 @@
       <c r="C46" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>45,LatchSel1,LatchSel1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -9908,10 +10092,14 @@
       <c r="C47" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>46,LatchSel0,LatchSel0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -9920,10 +10108,14 @@
       <c r="C48" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>47,DGND3,DGND</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -9932,10 +10124,14 @@
       <c r="C49" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>48,ROen,ROen</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -9944,10 +10140,14 @@
       <c r="C50" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>49,Vreset_store,Vreset_store</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -9956,10 +10156,14 @@
       <c r="C51" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>50,ROvcp,ROvcp</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -9968,10 +10172,14 @@
       <c r="C52" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>51,DVDD2,DVDD</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -9980,10 +10188,14 @@
       <c r="C53" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v>52,TrigOut8,TrigOut8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -9992,10 +10204,14 @@
       <c r="C54" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>53,TrigOut7,TrigOut7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -10004,10 +10220,14 @@
       <c r="C55" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>54,TrigOut6,TrigOut6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -10016,10 +10236,14 @@
       <c r="C56" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v>55,Data11,Data11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -10028,10 +10252,14 @@
       <c r="C57" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v>56,Data10,Data10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -10040,10 +10268,14 @@
       <c r="C58" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v>57,Data9,Data9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -10052,10 +10284,14 @@
       <c r="C59" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v>58,Data8,Data8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -10064,10 +10300,14 @@
       <c r="C60" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v>59,Data7,Data7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -10076,10 +10316,14 @@
       <c r="C61" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v>60,Data6,Data6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -10088,10 +10332,14 @@
       <c r="C62" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v>61,DVDD3,DVDD</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -10100,10 +10348,14 @@
       <c r="C63" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v>62,DGND_PKG8,DGND</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B64" s="15" t="s">
@@ -10112,10 +10364,14 @@
       <c r="C64" s="15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v>63,DGND_PKG9,DGND</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B65" s="15" t="s">
@@ -10124,10 +10380,14 @@
       <c r="C65" s="15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v>64,DGND_PKG10,DGND</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B66" s="15" t="s">
@@ -10136,10 +10396,14 @@
       <c r="C66" s="15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H66" t="str">
+        <f t="shared" si="0"/>
+        <v>65,DGND_PKG11,DGND</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B67" s="15" t="s">
@@ -10148,10 +10412,14 @@
       <c r="C67" s="15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H130" si="2">CONCATENATE(A68,",",B68,",",C68)</f>
+        <v>66,DGND_PKG12,DGND</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
-        <f t="shared" ref="A68:A130" si="1">A67+1</f>
+        <f t="shared" ref="A68:A130" si="3">A67+1</f>
         <v>66</v>
       </c>
       <c r="B68" s="15" t="s">
@@ -10160,10 +10428,14 @@
       <c r="C68" s="15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H68" t="str">
+        <f t="shared" si="2"/>
+        <v>67,DGND_PKG13,DGND</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="B69" s="15" t="s">
@@ -10172,10 +10444,14 @@
       <c r="C69" s="15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H69" t="str">
+        <f t="shared" si="2"/>
+        <v>68,Data5,Data5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -10184,10 +10460,14 @@
       <c r="C70" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H70" t="str">
+        <f t="shared" si="2"/>
+        <v>69,Data4,Data4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -10196,10 +10476,14 @@
       <c r="C71" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H71" t="str">
+        <f t="shared" si="2"/>
+        <v>70,Data3,Data3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -10208,10 +10492,14 @@
       <c r="C72" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H72" t="str">
+        <f t="shared" si="2"/>
+        <v>71,Data2,Data2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -10220,10 +10508,14 @@
       <c r="C73" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H73" t="str">
+        <f t="shared" si="2"/>
+        <v>72,Data1,Data1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -10232,10 +10524,14 @@
       <c r="C74" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H74" t="str">
+        <f t="shared" si="2"/>
+        <v>73,ReadClk,ReadClk</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -10244,10 +10540,14 @@
       <c r="C75" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H75" t="str">
+        <f t="shared" si="2"/>
+        <v>74,DGND4,DGND</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -10256,10 +10556,14 @@
       <c r="C76" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H76" t="str">
+        <f t="shared" si="2"/>
+        <v>75,TrigOut5,TrigOut5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -10268,10 +10572,14 @@
       <c r="C77" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H77" t="str">
+        <f t="shared" si="2"/>
+        <v>76,TrigOut4,TrigOut4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -10280,10 +10588,14 @@
       <c r="C78" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H78" t="str">
+        <f t="shared" si="2"/>
+        <v>77,TrigThresh5,TrigThresh5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -10292,10 +10604,14 @@
       <c r="C79" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H79" t="str">
+        <f t="shared" si="2"/>
+        <v>78,DVDD4,DVDD</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -10304,10 +10620,14 @@
       <c r="C80" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H80" t="str">
+        <f t="shared" si="2"/>
+        <v>79,TrigThresh3,TrigThresh3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -10316,10 +10636,14 @@
       <c r="C81" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H81" t="str">
+        <f t="shared" si="2"/>
+        <v>80,DVDD5,DVDD</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -10328,10 +10652,14 @@
       <c r="C82" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H82" t="str">
+        <f t="shared" si="2"/>
+        <v>81,CompSel2,CompSel2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -10340,10 +10668,14 @@
       <c r="C83" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H83" t="str">
+        <f t="shared" si="2"/>
+        <v>82,CompSel1,CompSel1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -10352,10 +10684,14 @@
       <c r="C84" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H84" t="str">
+        <f t="shared" si="2"/>
+        <v>83,CompSel0,CompSel0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -10364,10 +10700,14 @@
       <c r="C85" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H85" t="str">
+        <f t="shared" si="2"/>
+        <v>84,TrigOut3,TrigOut3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="B86" s="3" t="s">
@@ -10376,10 +10716,14 @@
       <c r="C86" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H86" t="str">
+        <f t="shared" si="2"/>
+        <v>85,TrigOut2,TrigOut2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -10388,10 +10732,14 @@
       <c r="C87" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H87" t="str">
+        <f t="shared" si="2"/>
+        <v>86,TrigOut1,TrigOut1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -10400,10 +10748,14 @@
       <c r="C88" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H88" t="str">
+        <f t="shared" si="2"/>
+        <v>87,DGND5,DGND</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -10412,10 +10764,14 @@
       <c r="C89" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H89" t="str">
+        <f t="shared" si="2"/>
+        <v>88,BiasComp,BiasComp</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -10424,10 +10780,14 @@
       <c r="C90" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H90" t="str">
+        <f t="shared" si="2"/>
+        <v>89,BiasXfer,BiasXfer</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -10436,10 +10796,14 @@
       <c r="C91" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H91" t="str">
+        <f t="shared" si="2"/>
+        <v>90,Cext,Cext</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -10448,10 +10812,14 @@
       <c r="C92" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H92" t="str">
+        <f t="shared" si="2"/>
+        <v>91,BiasRampSlpoe,BiasRampSlpoe</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -10460,10 +10828,14 @@
       <c r="C93" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H93" t="str">
+        <f t="shared" si="2"/>
+        <v>92,RampBuffOut,RampBuffOut</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -10472,10 +10844,14 @@
       <c r="C94" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H94" t="str">
+        <f t="shared" si="2"/>
+        <v>93,BiasRampBuf,BiasRampBuf</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -10484,10 +10860,14 @@
       <c r="C95" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H95" t="str">
+        <f t="shared" si="2"/>
+        <v>94,DVDD6,DVDD</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
@@ -10496,10 +10876,14 @@
       <c r="C96" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H96" t="str">
+        <f t="shared" si="2"/>
+        <v>95,DGND_PKG14,DGND</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="B97" s="15" t="s">
@@ -10508,10 +10892,14 @@
       <c r="C97" s="15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H97" t="str">
+        <f t="shared" si="2"/>
+        <v>96,DGND_PKG15,DGND</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="B98" s="15" t="s">
@@ -10520,10 +10908,14 @@
       <c r="C98" s="15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H98" t="str">
+        <f t="shared" si="2"/>
+        <v>97,DGND_PKG16,DGND</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="B99" s="15" t="s">
@@ -10532,10 +10924,14 @@
       <c r="C99" s="15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H99" t="str">
+        <f t="shared" si="2"/>
+        <v>98,DGND_PKG17,DGND</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="B100" s="15" t="s">
@@ -10544,10 +10940,14 @@
       <c r="C100" s="15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H100" t="str">
+        <f t="shared" si="2"/>
+        <v>99,DGND_PKG18,DGND</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="B101" s="15" t="s">
@@ -10556,10 +10956,14 @@
       <c r="C101" s="15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H101" t="str">
+        <f t="shared" si="2"/>
+        <v>100,Ramp,Ramp</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -10568,10 +10972,14 @@
       <c r="C102" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H102" t="str">
+        <f t="shared" si="2"/>
+        <v>101,ChanSel2,ChanSel2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -10580,10 +10988,14 @@
       <c r="C103" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H103" t="str">
+        <f t="shared" si="2"/>
+        <v>102,ChanSel1,ChanSel1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -10592,10 +11004,14 @@
       <c r="C104" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H104" t="str">
+        <f t="shared" si="2"/>
+        <v>103,ChanSel0,ChanSel0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -10604,10 +11020,14 @@
       <c r="C105" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H105" t="str">
+        <f t="shared" si="2"/>
+        <v>104,TrigThresh2,TrigThresh2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -10616,10 +11036,14 @@
       <c r="C106" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H106" t="str">
+        <f t="shared" si="2"/>
+        <v>105,TrigThresh1,TrigThresh1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -10628,10 +11052,14 @@
       <c r="C107" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H107" t="str">
+        <f t="shared" si="2"/>
+        <v>106,DGND6,DGND</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="B108" s="3" t="s">
@@ -10640,10 +11068,14 @@
       <c r="C108" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H108" t="str">
+        <f t="shared" si="2"/>
+        <v>107,ResetXferEn,ResetXferEn</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -10652,10 +11084,14 @@
       <c r="C109" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H109" t="str">
+        <f t="shared" si="2"/>
+        <v>108,DVDD7,DVDD</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="B110" s="3" t="s">
@@ -10664,10 +11100,14 @@
       <c r="C110" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H110" t="str">
+        <f t="shared" si="2"/>
+        <v>109,VCDLout,VCDLout</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="B111" s="3" t="s">
@@ -10676,10 +11116,14 @@
       <c r="C111" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H111" t="str">
+        <f t="shared" si="2"/>
+        <v>110,BiasDLLp,BiasDLLp</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="B112" s="3" t="s">
@@ -10688,10 +11132,14 @@
       <c r="C112" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H112" t="str">
+        <f t="shared" si="2"/>
+        <v>111,DLLspeed,DLLspeed</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="B113" s="3" t="s">
@@ -10700,10 +11148,14 @@
       <c r="C113" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H113" t="str">
+        <f t="shared" si="2"/>
+        <v>112,DLLstart,DLLstart</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="B114" s="3" t="s">
@@ -10712,10 +11164,14 @@
       <c r="C114" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H114" t="str">
+        <f t="shared" si="2"/>
+        <v>113,BiasDLLDelayLast,BiasDLLDelayLast</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="B115" s="3" t="s">
@@ -10724,10 +11180,14 @@
       <c r="C115" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H115" t="str">
+        <f t="shared" si="2"/>
+        <v>114,BiasDLLDelayFirst,BiasDLLDelayFirst</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="B116" s="3" t="s">
@@ -10736,10 +11196,14 @@
       <c r="C116" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H116" t="str">
+        <f t="shared" si="2"/>
+        <v>115,VDD_VCDL3,VDD_VCDL</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="B117" s="3" t="s">
@@ -10748,10 +11212,14 @@
       <c r="C117" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H117" t="str">
+        <f t="shared" si="2"/>
+        <v>116,BiasDLLn,BiasDLLn</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="B118" s="3" t="s">
@@ -10760,10 +11228,14 @@
       <c r="C118" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H118" t="str">
+        <f t="shared" si="2"/>
+        <v>117,DGND7,DGND</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="B119" s="3" t="s">
@@ -10772,10 +11244,14 @@
       <c r="C119" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H119" t="str">
+        <f t="shared" si="2"/>
+        <v>118,DLL_VCP,DLL_VCP</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="B120" s="3" t="s">
@@ -10784,10 +11260,14 @@
       <c r="C120" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H120" t="str">
+        <f t="shared" si="2"/>
+        <v>119,VDD_ChPump,VDD_CHARGEPUMP</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="B121" s="3" t="s">
@@ -10796,10 +11276,14 @@
       <c r="C121" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H121" t="str">
+        <f t="shared" si="2"/>
+        <v>120,XferAdr0,XferAdr0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="B122" s="3" t="s">
@@ -10808,10 +11292,14 @@
       <c r="C122" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H122" t="str">
+        <f t="shared" si="2"/>
+        <v>121,XferAdr1,XferAdr1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="B123" s="3" t="s">
@@ -10820,10 +11308,14 @@
       <c r="C123" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H123" t="str">
+        <f t="shared" si="2"/>
+        <v>122,XferAdr2,XferAdr2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="B124" s="3" t="s">
@@ -10832,10 +11324,14 @@
       <c r="C124" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H124" t="str">
+        <f t="shared" si="2"/>
+        <v>123,XferAdr3,XferAdr3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="B125" s="3" t="s">
@@ -10844,10 +11340,14 @@
       <c r="C125" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H125" t="str">
+        <f t="shared" si="2"/>
+        <v>124,MClk,MClk</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="B126" s="3" t="s">
@@ -10856,10 +11356,14 @@
       <c r="C126" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H126" t="str">
+        <f t="shared" si="2"/>
+        <v>125,DGND8,DGND</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="B127" s="3" t="s">
@@ -10868,10 +11372,14 @@
       <c r="C127" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H127" t="str">
+        <f t="shared" si="2"/>
+        <v>126,DGND_PKG19,DGND</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="B128" s="15" t="s">
@@ -10880,10 +11388,14 @@
       <c r="C128" s="15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H128" t="str">
+        <f t="shared" si="2"/>
+        <v>127,DGND_PKG20,DGND</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>127</v>
       </c>
       <c r="B129" s="15" t="s">
@@ -10892,10 +11404,14 @@
       <c r="C129" s="15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H129" t="str">
+        <f t="shared" si="2"/>
+        <v>128,DGND_PKG21,DGND</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="B130" s="15" t="s">
@@ -10904,11 +11420,15 @@
       <c r="C130" s="15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H130" t="str">
+        <f t="shared" si="2"/>
+        <v>,,</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B131" s="15"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>139</v>
       </c>
@@ -10918,5 +11438,6 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="42" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PSEC4A_netlist.xlsx
+++ b/PSEC4A_netlist.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eric\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24585" windowHeight="8160" tabRatio="732" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24585" windowHeight="8160" tabRatio="732"/>
   </bookViews>
   <sheets>
     <sheet name="DIE WIREBOND PIN LOCATIONS" sheetId="10" r:id="rId1"/>
     <sheet name="DieLocationPlot" sheetId="11" r:id="rId2"/>
     <sheet name="SymbolNetlist" sheetId="12" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="186">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -573,6 +568,12 @@
   </si>
   <si>
     <t>128-pin LQFP Package</t>
+  </si>
+  <si>
+    <t>BiasRampSlope</t>
+  </si>
+  <si>
+    <t>Last Update: EJO 2017.4.21</t>
   </si>
 </sst>
 </file>
@@ -1068,6 +1069,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1778,11 +1780,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="119423936"/>
-        <c:axId val="119424496"/>
+        <c:axId val="48201728"/>
+        <c:axId val="122108928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="119423936"/>
+        <c:axId val="48201728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,6 +1820,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1854,12 +1857,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119424496"/>
+        <c:crossAx val="122108928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="119424496"/>
+        <c:axId val="122108928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1900,6 +1903,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1939,7 +1943,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119423936"/>
+        <c:crossAx val="48201728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2067,7 +2071,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2102,7 +2106,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2311,10 +2315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X132"/>
+  <dimension ref="A1:X135"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Q130" sqref="Q130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2582,6 +2586,9 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>164</v>
+      </c>
       <c r="B6" s="8"/>
       <c r="C6" s="26"/>
       <c r="D6" s="8"/>
@@ -2593,7 +2600,7 @@
         <v>118</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
@@ -9261,6 +9268,11 @@
         <v>139</v>
       </c>
       <c r="F132" s="41"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I135" s="8" t="s">
+        <v>185</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9302,8 +9314,8 @@
   </sheetPr>
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D67" sqref="D2:D67"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10814,7 +10826,7 @@
       </c>
       <c r="H92" t="str">
         <f t="shared" si="2"/>
-        <v>91,BiasRampSlpoe,BiasRampSlpoe</v>
+        <v>91,BiasRampSlpoe,BiasRampSlope</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -10826,7 +10838,7 @@
         <v>89</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="2"/>
